--- a/Luis/b2.xlsx
+++ b/Luis/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\TEC\2024 S1\VLSI\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA166313-27C4-4A6F-A251-B778F78D4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26CC2B7-8478-4A1E-99B1-35F25A200174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>PMOS/NMOS</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>tpdr</t>
+  </si>
+  <si>
+    <t>optimizacion</t>
+  </si>
+  <si>
+    <t>Vdd</t>
+  </si>
+  <si>
+    <t>880n/220n</t>
+  </si>
+  <si>
+    <t>optimizacion a mano</t>
+  </si>
+  <si>
+    <t>P_avg</t>
+  </si>
+  <si>
+    <t>Ivdd_avg</t>
   </si>
 </sst>
 </file>
@@ -94,12 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +226,7 @@
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -269,7 +286,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$3:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.323E-10</c:v>
@@ -374,7 +391,7 @@
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -434,7 +451,7 @@
             <c:numRef>
               <c:f>Hoja1!$C$3:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>7.4809999999999998E-11</c:v>
@@ -529,7 +546,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -591,7 +608,761 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795068047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tpdr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2000000000000037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.323E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3329999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2839999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2359999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1989999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.169E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.149E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.123E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1239999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1130000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.109E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.096E-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1050000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.104E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1079999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.111E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1130000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.119E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1239999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.135E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.13E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.136E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.142E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1450000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.155E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.16E-10</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.1760000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1869999999999999E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCBF-446C-9040-AA2731FED95A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tpdf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2000000000000037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.4809999999999998E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8889999999999994E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0940000000000003E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2749999999999994E-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6420000000000006E-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6659999999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7539999999999998E-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9290000000000005E-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1099999999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2969999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4909999999999994E-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6919999999999996E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8879999999999994E-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0900000000000004E-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2830000000000004E-11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4769999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6560000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8570000000000002E-11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0059999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.025E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.042E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.061E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.085E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.115E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.136E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.157E-10</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.2070000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.244E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCBF-446C-9040-AA2731FED95A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="795068047"/>
+        <c:axId val="790786927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="795068047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790786927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790786927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -755,7 +1526,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1304,6 +2631,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F045A03A-E7B6-E2D8-1554-F8E408594E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1575,21 +2938,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G96"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1598,298 +2966,459 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1.323E-10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>7.4809999999999998E-11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-7.0899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
         <f>(A3+0.2)</f>
         <v>1.2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1.3329999999999999E-10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>6.8889999999999994E-11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A19" si="0">(A4+0.2)</f>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A27" si="0">(A4+0.2)</f>
         <v>1.4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1.2839999999999999E-10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>7.0940000000000003E-11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2">
+        <f>(ABS(O3)*O4)</f>
+        <v>1.2762000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
         <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1.2359999999999999E-10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>7.2749999999999994E-11</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1.1989999999999999E-10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>7.6420000000000006E-11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
         <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>1.169E-10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>7.6659999999999997E-11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
         <f t="shared" si="0"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1.149E-10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>7.7539999999999998E-11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>-9.4600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.123E-10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>7.9290000000000005E-11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>8.1099999999999997E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="2">
+        <f>(ABS(O9)*O10)</f>
+        <v>1.7028E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>8.2969999999999999E-11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>1.109E-10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>8.4909999999999994E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1.096E-10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>8.6919999999999996E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>1.1050000000000001E-10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>8.8879999999999994E-11</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1.104E-10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>9.0900000000000004E-11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>3.8000000000000012</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>1.1079999999999999E-10</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>9.2830000000000004E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>1.111E-10</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>9.4769999999999999E-11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>9.6560000000000001E-11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="B20">
+        <v>1.119E-10</v>
+      </c>
+      <c r="C20">
+        <v>9.8570000000000002E-11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="B21">
+        <v>1.1239999999999999E-10</v>
+      </c>
+      <c r="C21">
+        <v>1.0059999999999999E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="B22">
+        <v>1.135E-10</v>
+      </c>
+      <c r="C22">
+        <v>1.025E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="B23">
+        <v>1.13E-10</v>
+      </c>
+      <c r="C23">
+        <v>1.042E-10</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>5.200000000000002</v>
+      </c>
+      <c r="B24">
+        <v>1.136E-10</v>
+      </c>
+      <c r="C24">
+        <v>1.061E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="B25">
+        <v>1.142E-10</v>
+      </c>
+      <c r="C25">
+        <v>1.085E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000023</v>
+      </c>
+      <c r="B26">
+        <v>1.1450000000000001E-10</v>
+      </c>
+      <c r="C26">
+        <v>1.115E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000025</v>
+      </c>
+      <c r="B27">
+        <v>1.155E-10</v>
+      </c>
+      <c r="C27">
+        <v>1.136E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>(A27+0.2)</f>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="B28">
+        <v>1.16E-10</v>
+      </c>
+      <c r="C28">
+        <v>1.157E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" ref="A29:A34" si="1">(A28+0.2)</f>
+        <v>6.2000000000000028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>6.400000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000032</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.1760000000000001E-10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.2070000000000001E-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000037</v>
+      </c>
+      <c r="B34">
+        <v>1.1869999999999999E-10</v>
+      </c>
+      <c r="C34">
+        <v>1.244E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">

--- a/Luis/b2.xlsx
+++ b/Luis/b2.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\TEC\2024 S1\VLSI\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26CC2B7-8478-4A1E-99B1-35F25A200174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F25E1-EC4B-4E66-AFDB-A748358FBE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>PMOS/NMOS</t>
   </si>
@@ -47,22 +49,43 @@
     <t>tpdr</t>
   </si>
   <si>
-    <t>optimizacion</t>
+    <t>tpd</t>
   </si>
   <si>
-    <t>Vdd</t>
+    <t>L=180n</t>
   </si>
   <si>
-    <t>880n/220n</t>
+    <t>WN=220</t>
   </si>
   <si>
-    <t>optimizacion a mano</t>
+    <t>WP=440n</t>
   </si>
   <si>
-    <t>P_avg</t>
+    <t>WN=220+C+A1:D28</t>
   </si>
   <si>
-    <t>Ivdd_avg</t>
+    <t>Potencia Promedio</t>
+  </si>
+  <si>
+    <t>0.3293mW</t>
+  </si>
+  <si>
+    <t>0.1276mW</t>
+  </si>
+  <si>
+    <t>Optimizacion a mano</t>
+  </si>
+  <si>
+    <t>Optimizacion</t>
+  </si>
+  <si>
+    <t>tpdf(s)</t>
+  </si>
+  <si>
+    <t>tpd(s)</t>
+  </si>
+  <si>
+    <t>tpdr(s)</t>
   </si>
 </sst>
 </file>
@@ -92,15 +115,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -108,15 +155,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,9 +304,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4580665906011659E-2"/>
+          <c:y val="9.1143038994370096E-2"/>
+          <c:w val="0.89290256214333852"/>
+          <c:h val="0.75349113691125014"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -193,13 +327,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tpdr</c:v>
+                  <c:v>tpdr(s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -224,10 +358,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$19</c:f>
+              <c:f>Hoja1!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -278,16 +412,43 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000000000000027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$19</c:f>
+              <c:f>Hoja1!$B$3:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.323E-10</c:v>
                 </c:pt>
@@ -338,14 +499,41 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.1130000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.119E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1239999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.135E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.13E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.136E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.142E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1450000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.155E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.16E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01D1-4F9C-8B74-8EAEE687B623}"/>
+              <c16:uniqueId val="{00000000-15FB-4030-8F8B-E35992657260}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -358,13 +546,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tpdf</c:v>
+                  <c:v>tpdf(s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -389,10 +577,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$19</c:f>
+              <c:f>Hoja1!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -443,16 +631,43 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000000000000027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$19</c:f>
+              <c:f>Hoja1!$C$3:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>7.4809999999999998E-11</c:v>
                 </c:pt>
@@ -503,14 +718,260 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9.6560000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8570000000000002E-11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0059999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.025E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.042E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.061E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.085E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.115E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.136E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.157E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01D1-4F9C-8B74-8EAEE687B623}"/>
+              <c16:uniqueId val="{00000001-15FB-4030-8F8B-E35992657260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tpd(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000000000000027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.03555E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01095E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9670000000000003E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8175E-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.816E-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6780000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6220000000000005E-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5795000000000004E-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6750000000000002E-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7134999999999996E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7904999999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8260000000000005E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9689999999999994E-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0065000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.01815E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0293499999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0393E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.05235E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0649999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0799999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0859999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0985E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1135000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.13E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1455000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1584999999999999E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15FB-4030-8F8B-E35992657260}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -522,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="795068047"/>
-        <c:axId val="771781632"/>
+        <c:axId val="265857503"/>
+        <c:axId val="1778522559"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="795068047"/>
+        <c:axId val="265857503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +1013,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
@@ -568,12 +1029,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -583,12 +1044,12 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771781632"/>
+        <c:crossAx val="1778522559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="771781632"/>
+        <c:axId val="1778522559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +1091,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -645,13 +1106,13 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795068047"/>
+        <c:crossAx val="265857503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln cmpd="sng">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -659,6 +1120,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37083662546594698"/>
+          <c:y val="0.94176518394638353"/>
+          <c:w val="0.28722345375001634"/>
+          <c:h val="5.8234816053616419E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -672,761 +1143,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tpdr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$3:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.8000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.6000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.8000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.0000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.2000000000000037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$3:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1.323E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3329999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2839999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2359999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1989999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.169E-10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.149E-10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.123E-10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1239999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1130000000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.109E-10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.096E-10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1050000000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.104E-10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1079999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.111E-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1130000000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.119E-10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1239999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.135E-10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.13E-10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.136E-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.142E-10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1450000000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.155E-10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.16E-10</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1760000000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.1869999999999999E-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCBF-446C-9040-AA2731FED95A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tpdf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$3:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.8000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.6000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.8000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.0000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.2000000000000037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$C$3:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>7.4809999999999998E-11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8889999999999994E-11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0940000000000003E-11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2749999999999994E-11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6420000000000006E-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6659999999999997E-11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7539999999999998E-11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9290000000000005E-11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1099999999999997E-11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.2969999999999999E-11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.4909999999999994E-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.6919999999999996E-11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8879999999999994E-11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.0900000000000004E-11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.2830000000000004E-11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.4769999999999999E-11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.6560000000000001E-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.8570000000000002E-11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0059999999999999E-10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.025E-10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.042E-10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.061E-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.085E-10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.115E-10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.136E-10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.157E-10</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.2070000000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.244E-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCBF-446C-9040-AA2731FED95A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="795068047"/>
-        <c:axId val="790786927"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="795068047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790786927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="790786927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="795068047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1487,46 +1212,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2082,543 +1767,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35861</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B322EEF-1EB8-AD3D-2F86-2AF1F2342185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB65E40-295A-16E4-B913-ED57F4AEDC02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,40 +1805,48 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546848</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372897</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145311</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F045A03A-E7B6-E2D8-1554-F8E408594E9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07750CA7-D4F2-E3F7-B776-681632A2A2EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11017624" y="0"/>
+          <a:ext cx="6173061" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2938,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,403 +2126,514 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1.323E-10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>7.4809999999999998E-11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="D3" s="5">
+        <f>(B3+C3)/2</f>
+        <v>1.03555E-10</v>
+      </c>
+      <c r="E3">
+        <f>MIN(D3:D28)</f>
+        <v>9.5795000000000004E-11</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="2">
-        <v>-7.0899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <f>(A3+0.2)</f>
         <v>1.2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1.3329999999999999E-10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>6.8889999999999994E-11</v>
       </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" ref="A5:A27" si="0">(A4+0.2)</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D34" si="0">(B4+C4)/2</f>
+        <v>1.01095E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A27" si="1">(A4+0.2)</f>
         <v>1.4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1.2839999999999999E-10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>7.0940000000000003E-11</v>
       </c>
-      <c r="N5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2">
-        <f>(ABS(O3)*O4)</f>
-        <v>1.2762000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9670000000000003E-11</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1.2359999999999999E-10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>7.2749999999999994E-11</v>
       </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8175E-11</v>
+      </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
+      <c r="H6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>1.1989999999999999E-10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>7.6420000000000006E-11</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>9.816E-11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1.169E-10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>7.6659999999999997E-11</v>
       </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.6780000000000001E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1.149E-10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>7.7539999999999998E-11</v>
       </c>
-      <c r="N9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="2">
-        <v>-9.4600000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.6220000000000005E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1.123E-10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>7.9290000000000005E-11</v>
       </c>
-      <c r="N10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
+      <c r="D10" s="6">
+        <f>(B10+C10)/2</f>
+        <v>9.5795000000000004E-11</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>8.1099999999999997E-11</v>
       </c>
-      <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="2">
-        <f>(ABS(O9)*O10)</f>
-        <v>1.7028E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>9.6750000000000002E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>8.2969999999999999E-11</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>9.7134999999999996E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1.109E-10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>8.4909999999999994E-11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>9.7904999999999997E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1.096E-10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>8.6919999999999996E-11</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8260000000000005E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>1.1050000000000001E-10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>8.8879999999999994E-11</v>
       </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9689999999999994E-11</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>1.104E-10</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>9.0900000000000004E-11</v>
       </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0065000000000001E-10</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
         <v>3.8000000000000012</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>1.1079999999999999E-10</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>9.2830000000000004E-11</v>
       </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>1.01815E-10</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>1.111E-10</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>9.4769999999999999E-11</v>
       </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0293499999999999E-10</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>1.1130000000000001E-10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>9.6560000000000001E-11</v>
       </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0393E-10</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
         <v>4.4000000000000012</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>1.119E-10</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>9.8570000000000002E-11</v>
       </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.05235E-10</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
         <v>4.6000000000000014</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>1.1239999999999999E-10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>1.0059999999999999E-10</v>
       </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0649999999999999E-10</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
         <v>4.8000000000000016</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>1.135E-10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>1.025E-10</v>
       </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0799999999999999E-10</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
         <v>5.0000000000000018</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1.13E-10</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>1.042E-10</v>
       </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0859999999999999E-10</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
+      <c r="A24" s="5">
+        <f t="shared" si="1"/>
         <v>5.200000000000002</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>1.136E-10</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>1.061E-10</v>
       </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0985E-10</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
         <v>5.4000000000000021</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>1.142E-10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>1.085E-10</v>
       </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1135000000000001E-10</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
         <v>5.6000000000000023</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>1.1450000000000001E-10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>1.115E-10</v>
       </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.13E-10</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
         <v>5.8000000000000025</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>1.155E-10</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>1.136E-10</v>
       </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1455000000000001E-10</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="5">
         <f>(A27+0.2)</f>
         <v>6.0000000000000027</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>1.16E-10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>1.157E-10</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1584999999999999E-10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" ref="A29:A34" si="1">(A28+0.2)</f>
+        <f t="shared" ref="A29:A34" si="2">(A28+0.2)</f>
         <v>6.2000000000000028</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.400000000000003</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6000000000000032</v>
       </c>
       <c r="B31" s="2">
@@ -3354,22 +2642,34 @@
       <c r="C31" s="2">
         <v>1.2070000000000001E-10</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.1915E-10</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8000000000000034</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000036</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2000000000000037</v>
       </c>
       <c r="B34">
@@ -3378,47 +2678,51 @@
       <c r="C34">
         <v>1.244E-10</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1.2155000000000001E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -3566,8 +2870,311 @@
       <c r="A96" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36126311-0512-4D55-B100-B9E4FF03B675}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>(A3+0.2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D28" si="0">(B4+C4)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A27" si="1">(A4+0.2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>5.200000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000023</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000025</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>(A27+0.2)</f>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>